--- a/MNIST/ablation/hyperpara/choose_hyperpara.xlsx
+++ b/MNIST/ablation/hyperpara/choose_hyperpara.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C0C6C-4FF2-4AEC-840B-BC7CB3FCB101}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A88B2DC-5E85-4B85-BC19-3F7878C24EF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,11 +422,11 @@
         <v>0.99448000000000003</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H24" si="2">AVERAGE(B2:F2)</f>
+        <f t="shared" ref="H2:H60" si="2">AVERAGE(B2:F2)</f>
         <v>0.99375400000000003</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I24" si="3">STDEV(B2:F2)</f>
+        <f t="shared" ref="I2:I60" si="3">STDEV(B2:F2)</f>
         <v>3.5284812596923718E-3</v>
       </c>
       <c r="K2" s="1">
@@ -1038,7 +1038,7 @@
         <v>3.3596503091839758E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>0.98575999999999997</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0.11324740116223482</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>0.99585999999999997</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>9.7361763541957136E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H19" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1152,7 +1152,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>0.92308000000000001</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>2.8496788064622296E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>0.98460999999999999</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>1.2481207073035844E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>0.94616</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>1.7894785553339294E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>0.99992000000000003</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>1.6712270940837627E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>0.31801000000000001</v>
       </c>
@@ -1390,6 +1390,825 @@
       <c r="R24" s="1">
         <f t="shared" si="1"/>
         <v>2.5866260843036438E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H25" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.7</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.97755000000000003</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.95721000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.97175</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.96458999999999995</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.97692999999999997</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96960599999999997</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>8.6626485557247494E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>0.98458000000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.98595999999999995</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.98990999999999996</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.98823000000000005</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.99219000000000002</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98817400000000011</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="3"/>
+        <v>3.039889800634233E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>0.96616999999999997</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.95559000000000005</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.96321000000000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.95904999999999996</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.96675</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96215399999999995</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="3"/>
+        <v>4.771989103088967E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>0.97716000000000003</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.96950999999999998</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.97897999999999996</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.97487000000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.98143999999999998</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.97639200000000004</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5400517618194572E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>0.98970999999999998</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.99341999999999997</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.99461999999999995</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.99624000000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99385800000000002</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5363201690638392E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H31" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>0.92583000000000004</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.85714000000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.89593</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.86636000000000002</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89745200000000003</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6687605127617678E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>0.98641999999999996</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.96555999999999997</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.98826999999999998</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.97533999999999998</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.98036000000000001</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.97919</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1745245108397853E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>0.95530999999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.91974</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.96028000000000002</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.93181000000000003</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.93905000000000005</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94123800000000002</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6706716314105533E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.99982000000000004</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.99987000000000004</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99989000000000006</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6368092477453057E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>0.29886000000000001</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.24232000000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.39921000000000001</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.29192000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.32207999999999998</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31087799999999999</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7297610072323465E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H37" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.9</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.98980999999999997</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.96438000000000001</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.98773999999999995</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.99368000000000001</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.98375999999999997</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98387399999999992</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1471363476065071E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>0.99565999999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.98885999999999996</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.99467000000000005</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.99726999999999999</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99397199999999997</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1887724911006284E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>0.97751999999999994</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.95964000000000005</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.97633999999999999</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.98141</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.97318199999999988</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="3"/>
+        <v>8.4356102328165677E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>0.99053999999999998</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.97621999999999998</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.98773</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98707800000000001</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7024711860626468E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>0.99773000000000001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.99444999999999995</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.99702999999999997</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.99885000000000002</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.99634999999999996</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99688199999999993</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6440559601181748E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H43" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>0.82494999999999996</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.87685999999999997</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.94457000000000002</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.92818000000000001</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90305200000000008</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="3"/>
+        <v>5.137722228770257E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>0.97975999999999996</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.98116000000000003</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.98448999999999998</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.98731999999999998</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.98146999999999995</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98284000000000005</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0405016033542859E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>0.95062000000000002</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.95598000000000005</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.96291000000000004</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.94655</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95087200000000005</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3247450367289E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99991799999999986</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0954451150114277E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>0.30069000000000001</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.29565999999999998</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.34917999999999999</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.35758000000000001</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.22575000000000001</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30577199999999999</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2678086240864945E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H49" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.95</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.98314000000000001</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.97138999999999998</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.99328000000000005</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.98231000000000002</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98378399999999999</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2391279878395139E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>0.99446999999999997</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.99065000000000003</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.99631999999999998</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.99782000000000004</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.99483999999999995</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99482000000000004</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6815014450863139E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.96355999999999997</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.97780999999999996</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.98338000000000003</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.97179000000000004</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.97384799999999994</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3816102579315418E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>0.98807</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.98014000000000001</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.99021999999999999</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.99372000000000005</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98779000000000006</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0162436144988096E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>0.99717999999999996</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.99502999999999997</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.99863999999999997</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.99922</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.99795</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99760400000000016</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6286282571538638E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H55" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I55" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>0.87524999999999997</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.89302999999999999</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.95457000000000003</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.94443999999999995</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.91391</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="2"/>
+        <v>0.91623999999999983</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3499037299600125E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>0.97831999999999997</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.98672000000000004</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.98233999999999999</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.98873999999999995</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.97953999999999997</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98313200000000001</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="3"/>
+        <v>4.50023554939073E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>0.94008999999999998</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.95369000000000004</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.95899000000000001</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.96384999999999998</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95330399999999993</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="3"/>
+        <v>9.0815020784009142E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99991400000000008</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9493588689626033E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>0.28322999999999998</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.38351000000000002</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.36762</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.22086</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32428400000000002</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9865287732893536E-2</v>
       </c>
     </row>
   </sheetData>
